--- a/data/trans_dic/P37A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37A-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que con las horas que duerme, descansa lo suficiente</t>
+          <t>Población que con las horas que duerme, descansa lo suficiente (tasa de respuesta: 99,16%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>78,51%</t>
+          <t>78,07%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>78,41%</t>
+          <t>79,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>80,45%</t>
+          <t>79,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>82,87%</t>
+          <t>68,1%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>75,05%</t>
+          <t>82,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>70,94%</t>
+          <t>72,84%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>70,42%</t>
+          <t>74,91%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>69,31%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>71,29%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>71,07%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>60,43%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>76,83%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>74,7%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>75,39%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>70,64%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>76,53%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>74,21%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>75,28%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>69,6%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>72,3%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>71,82%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,05; 85,49</t>
+          <t>70,66; 84,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>70,21; 85,25</t>
+          <t>71,42; 85,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,69; 86,99</t>
+          <t>69,41; 85,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>72,98; 89,96</t>
+          <t>58,45; 77,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,7; 81,99</t>
+          <t>72,61; 89,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,26; 77,06</t>
+          <t>61,96; 81,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>62,61; 77,21</t>
+          <t>67,72; 81,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>50,62; 69,84</t>
+          <t>62,41; 76,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>71,3; 81,59</t>
+          <t>64,35; 78,42</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>69,44; 79,7</t>
+          <t>62,77; 78,5</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>69,51; 80,19</t>
+          <t>50,87; 69,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>66,35; 78,84</t>
+          <t>61,78; 78,04</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>71,39; 81,4</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>68,52; 79,33</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>69,49; 80,51</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>62,44; 75,2</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>64,98; 78,91</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>64,92; 77,75</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>80,66%</t>
+          <t>80,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,52%</t>
+          <t>79,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>74,79%</t>
+          <t>74,07%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>67,94%</t>
+          <t>76,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>67,91%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>73,66%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>68,68%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>62,62%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>62,56%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>62,47%</t>
+          <t>62,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>74,93%</t>
+          <t>62,59%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>71,52%</t>
+          <t>57,1%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>69,1%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>65,3%</t>
+          <t>59,69%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>74,91%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>71,54%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>68,75%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>67,39%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>65,29%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>66,77%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>67,87; 88,01</t>
+          <t>68,75; 87,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,05; 84,93</t>
+          <t>73,5; 85,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66,08; 81,38</t>
+          <t>64,07; 80,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>56,33; 77,41</t>
+          <t>67,53; 84,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>60,93; 75,45</t>
+          <t>56,41; 78,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>55,92; 68,54</t>
+          <t>63,72; 81,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>55,61; 68,52</t>
+          <t>61,1; 75,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>54,23; 69,68</t>
+          <t>55,67; 68,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>68,73; 80,08</t>
+          <t>55,89; 68,5</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>67,39; 76,03</t>
+          <t>49,37; 65,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>63,23; 73,58</t>
+          <t>55,18; 69,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>58,75; 71,72</t>
+          <t>51,84; 66,95</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>69,1; 80,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>67,2; 75,79</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>62,89; 74,12</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>61,87; 74,27</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>58,4; 71,56</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>60,49; 72,55</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>74,09%</t>
+          <t>71,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73,68%</t>
+          <t>73,4%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73,97%</t>
+          <t>74,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>75,47%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>68,12%</t>
+          <t>75,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>67,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>66,24%</t>
+          <t>68,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>67,41%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>66,08%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>59,51%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>65,59%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>71,09%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>70,73%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>69,98%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>70,84%</t>
+          <t>61,69%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>70,12%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>70,35%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>70,17%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>64,54%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>70,85%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>64,74%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,46; 80,92</t>
+          <t>63,9; 77,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,84; 78,75</t>
+          <t>67,38; 78,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>65,16; 79,62</t>
+          <t>66,8; 79,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>69,28; 80,72</t>
+          <t>62,19; 76,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,46; 73,27</t>
+          <t>69,52; 81,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,93; 72,56</t>
+          <t>59,44; 74,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,2; 70,93</t>
+          <t>62,48; 73,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,03; 71,61</t>
+          <t>62,42; 72,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>66,25; 75,45</t>
+          <t>61,17; 71,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>66,52; 74,24</t>
+          <t>53,58; 65,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>65,06; 73,71</t>
+          <t>58,5; 70,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>66,54; 74,88</t>
+          <t>54,63; 68,98</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>65,06; 74,08</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>66,19; 74,06</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>66,04; 73,96</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>60,08; 69,0</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>66,51; 74,99</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>59,96; 69,58</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>79,05%</t>
+          <t>77,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>77,19%</t>
+          <t>76,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>79,67%</t>
+          <t>79,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>72,99%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>77,12%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>68,76%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>64,75%</t>
+          <t>72,45%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>62,73%</t>
+          <t>68,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>64,43%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>62,31%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>61,25%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>58,12%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>73,75%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>70,85%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>71,12%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>68,15%</t>
+          <t>60,16%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>73,09%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>70,33%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>70,59%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>67,14%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>68,16%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>66,55%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>73,27; 84,38</t>
+          <t>71,42; 83,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,93; 81,45</t>
+          <t>70,97; 81,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,17; 84,39</t>
+          <t>73,46; 83,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70,04; 82,94</t>
+          <t>65,01; 78,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>63,33; 73,92</t>
+          <t>69,95; 82,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,73; 69,71</t>
+          <t>65,81; 78,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,85; 67,4</t>
+          <t>63,28; 73,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,72; 64,69</t>
+          <t>58,84; 69,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,08; 77,32</t>
+          <t>57,02; 67,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>67,46; 74,47</t>
+          <t>54,83; 66,85</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>67,21; 74,64</t>
+          <t>51,39; 64,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>63,05; 72,82</t>
+          <t>53,07; 66,03</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>68,96; 77,13</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>66,79; 73,85</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>67,13; 74,07</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>62,9; 71,25</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>63,32; 72,88</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>61,46; 70,62</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>84,87%</t>
+          <t>84,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>85,28%</t>
+          <t>84,86%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>84,91%</t>
+          <t>84,88%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>80,51%</t>
+          <t>83,95%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>78,7%</t>
+          <t>80,52%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>76,6%</t>
+          <t>70,38%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>77,87%</t>
+          <t>78,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>76,37%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>77,93%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>67,38%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>69,41%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>81,77%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>80,99%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>81,32%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>70,49%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>81,55%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>80,68%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>81,33%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>75,49%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>74,73%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>70,43%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,78; 89,35</t>
+          <t>76,75; 89,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>80,8; 89,47</t>
+          <t>79,86; 88,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,79; 88,7</t>
+          <t>80,04; 88,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>74,21; 86,65</t>
+          <t>78,27; 88,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>72,39; 83,89</t>
+          <t>73,62; 85,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>70,8; 81,62</t>
+          <t>63,88; 77,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>72,12; 82,42</t>
+          <t>72,49; 83,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>62,72; 75,18</t>
+          <t>70,17; 81,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>76,68; 85,44</t>
+          <t>72,41; 82,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>77,35; 84,07</t>
+          <t>60,23; 74,44</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>77,34; 84,37</t>
+          <t>62,89; 75,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>70,28; 78,85</t>
+          <t>63,58; 76,66</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>76,88; 85,14</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>76,44; 83,83</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>77,83; 84,67</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>71,21; 79,32</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>70,01; 78,99</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>65,7; 75,03</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>91,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>92,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>83,8%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>82,28%</t>
+          <t>84,46%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>88,13%</t>
+          <t>83,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>81,96%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>87,08%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>86,62%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>81,58%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>87,16%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>86,39%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>89,79%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>77,94%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>87,52%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>86,11%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>89,34%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>88,54%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>85,93%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>80,72%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>83,44; 95,56</t>
+          <t>87,97; 96,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>86,53; 95,18</t>
+          <t>86,94; 95,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,84; 95,37</t>
+          <t>87,14; 95,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86,14; 95,76</t>
+          <t>85,17; 94,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>78,08; 88,8</t>
+          <t>85,21; 95,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>76,7; 86,55</t>
+          <t>78,19; 90,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>83,61; 91,8</t>
+          <t>77,27; 88,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>73,74; 88,1</t>
+          <t>76,51; 86,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>82,67; 90,6</t>
+          <t>82,47; 91,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>82,38; 89,66</t>
+          <t>75,7; 92,05</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>86,54; 92,38</t>
+          <t>73,1; 88,03</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>80,73; 90,23</t>
+          <t>71,51; 84,63</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>83,32; 90,63</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>82,63; 88,93</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>86,11; 92,26</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>82,34; 92,05</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>80,99; 90,09</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>75,97; 85,56</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>80,99%</t>
+          <t>80,38%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>80,44%</t>
+          <t>80,22%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>80,5%</t>
+          <t>80,26%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>76,82%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>78,85%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>73,8%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>70,9%</t>
+          <t>73,24%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>71,52%</t>
+          <t>73,77%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>70,49%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>71,34%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>67,62%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>67,15%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>77,32%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>75,58%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>75,9%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>66,95%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>77,0%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>75,26%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>75,7%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>72,14%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>73,01%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>70,09%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>78,01; 83,59</t>
+          <t>77,16; 82,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>78,0; 82,71</t>
+          <t>77,86; 82,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>77,63; 82,99</t>
+          <t>77,53; 82,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>75,89; 81,77</t>
+          <t>73,76; 79,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>71,22; 76,2</t>
+          <t>75,62; 81,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>68,65; 73,04</t>
+          <t>69,93; 75,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>69,02; 73,87</t>
+          <t>71,11; 76,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>64,11; 69,79</t>
+          <t>68,1; 72,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>75,3; 79,1</t>
+          <t>68,82; 73,55</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>73,9; 77,24</t>
+          <t>64,62; 70,36</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>73,94; 77,59</t>
+          <t>64,07; 70,14</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>70,74; 75,0</t>
+          <t>64,02; 69,75</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>75,29; 79,03</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>73,55; 76,93</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>73,78; 77,27</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>70,1; 74,08</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>70,8; 75,16</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>67,85; 72,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que con las horas que duerme, descansa lo suficiente (tasa de respuesta: 99,16%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>235.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>383333</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>409169</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>397496</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>312970</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>34534</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31630</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>348890</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>355276</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>364919</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>335503</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>22409</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26477</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>732222</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>764444</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>762414</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>648473</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>56943</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>58106</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>346941; 413655</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>369663; 443022</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>347664; 429789</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>268608; 356652</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>30261; 37289</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>26906; 35269</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>315411; 380436</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>319906; 390848</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>329348; 401379</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>296328; 370608</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18866; 25841</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23157; 29249</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>683030; 778762</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>705866; 817238</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>703804; 815382</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>581778; 700590</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>51175; 62150</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>52522; 62906</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>143.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>457046</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>445629</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>435088</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>437141</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>33587</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34397</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>351172</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>316629</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>317273</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>283853</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>28761</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>27124</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>808218</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>762258</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>752361</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>720994</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>62348</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>61521</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>390260; 496958</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>413070; 478830</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>376375; 474586</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>386776; 485594</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>27897; 38684</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>29755; 37952</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>312407; 387141</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>280280; 343804</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>283296; 347241</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>245454; 323791</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>25402; 32048</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23556; 30422</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>745536; 863957</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>716015; 807538</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>688259; 811170</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>661915; 794591</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>55763; 68329</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>55739; 66849</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>201.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>155.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>440.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>441.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>320.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>487438</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>499652</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>487000</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>466151</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>45448</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>40614</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>483837</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>475821</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>461728</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>415635</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>34807</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>33409</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>971275</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>975474</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>948728</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>881785</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>80255</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>74022</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>434638; 527930</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>458660; 535766</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>436422; 521562</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>415231; 510306</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>41858; 49039</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>35772; 44573</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>440407; 518625</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>440591; 511743</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>427450; 496614</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>374249; 454205</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>31043; 37667</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29588; 37359</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>901071; 1026068</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>917717; 1026912</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>892941; 1000036</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>820793; 942680</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>75339; 84950</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>68555; 79559</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>407.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>455.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>472.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>366.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>497781</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>487422</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>497888</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>470599</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>44523</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>40917</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>456102</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>426963</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>401746</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>392731</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>29972</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>31421</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>953883</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>914385</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>899633</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>863331</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>74495</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>72338</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>455957; 533386</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>452335; 517718</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>462553; 525250</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>419187; 506540</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>40380; 47737</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>37164; 44208</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>421860; 492575</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>389918; 457893</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>367663; 433857</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>351530; 428579</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>26499; 33383</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>27720; 34489</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>900061; 1006687</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>868264; 960091</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>855494; 944041</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>808817; 916222</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>69203; 79660</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>66813; 76771</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>345.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>409.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>278.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>415277</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>424152</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>414298</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>409980</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>35385</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30563</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>387467</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>371037</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>397977</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>342984</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>33204</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>32207</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>802744</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>795189</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>812274</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>752966</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>68589</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>62770</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>376177; 437824</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>399178; 444229</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>390667; 433364</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>382228; 430706</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>32355; 37753</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>27741; 33621</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>358306; 412108</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>340890; 395556</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>369808; 421151</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>306607; 378928</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>30085; 36045</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>29051; 35026</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>756797; 838165</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>753449; 826300</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>777348; 845716</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>710214; 791150</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>64253; 72499</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>58555; 66868</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>376.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>387.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>231.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>480923</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>470341</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>486899</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>512323</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>42671</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>38494</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>587531</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>554765</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>586098</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>614629</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>51159</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>47578</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1068453</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>1025105</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1072998</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1126951</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>93832</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>86072</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>456446; 498420</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>446469; 489065</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>460049; 505434</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>479703; 534080</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>39612; 44406</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>35636; 41115</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>542405; 623216</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>517894; 584680</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>555071; 613772</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>537194; 653163</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>45838; 55204</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>43655; 51665</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1017243; 1106477</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>983670; 1058661</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1034115; 1108090</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1047973; 1171554</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>88435; 98374</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>80998; 91224</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>921.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1068.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1059.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>776.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>726.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>655.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>967.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1127.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1153.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>811.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>702.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>708.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1888.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>2195.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>2212.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1587.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1428.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1363.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2721798</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2736365</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2718669</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2609163</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>236148</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>216614</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2614998</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2500491</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2529740</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2385336</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>200313</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>198216</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>5336796</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>5236855</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>5248409</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>4994499</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>436461</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>414830</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2612906; 2804180</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2655948; 2809041</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2626425; 2798131</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2505139; 2700940</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>226491; 244496</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>206846; 224481</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2520650; 2698850</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2415805; 2575815</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2440320; 2608010</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2279605; 2482030</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>191129; 209221</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>189542; 206494</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>5218079; 5477782</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>5117684; 5353035</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>5115181; 5357345</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>4853792; 5129240</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>423252; 449324</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>401533; 426691</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
